--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F3264A-8D7B-40CE-A899-F65826E2DE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49259BFE-D115-4FE2-8A8C-569E445AE771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{926706CC-264D-4B3E-98B8-EB0F416D7D1A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{926706CC-264D-4B3E-98B8-EB0F416D7D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>1. Computational task- CD,LP etc</t>
   </si>
@@ -49,14 +49,169 @@
   </si>
   <si>
     <t>Non SSN</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Objective Func</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Evaluation metrices</t>
+  </si>
+  <si>
+    <t>Slashdot,Epinions</t>
+  </si>
+  <si>
+    <t>Normalisation,Frustration</t>
+  </si>
+  <si>
+    <t>Slashdot,Epinions,Wikipedia</t>
+  </si>
+  <si>
+    <t>AUC, Accuracy</t>
+  </si>
+  <si>
+    <t>Computational task</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Multiobjective</t>
+  </si>
+  <si>
+    <t>Slovene</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Normalized Mutual Information</t>
+  </si>
+  <si>
+    <t>Memetic Algorithm</t>
+  </si>
+  <si>
+    <t>SPP,GGS,EGFR,Yeast</t>
+  </si>
+  <si>
+    <t>Partial Fitness</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>NMI,Q</t>
+  </si>
+  <si>
+    <t>Slashdot</t>
+  </si>
+  <si>
+    <t>NMI</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>http://research.microsoft.com/en-us/people/weic/graphdata.zip</t>
+  </si>
+  <si>
+    <t>Nature Inspired Heuristics</t>
+  </si>
+  <si>
+    <t>Modularity</t>
+  </si>
+  <si>
+    <t>Self Made dataet</t>
+  </si>
+  <si>
+    <t>Nature Inpired Algo</t>
+  </si>
+  <si>
+    <t>Modularity NMI</t>
+  </si>
+  <si>
+    <t>Stable k core heuristic framework</t>
+  </si>
+  <si>
+    <t>Slashdots,Epinions</t>
+  </si>
+  <si>
+    <t>Q learning DOM</t>
+  </si>
+  <si>
+    <t>BA, WE, and Slashdot</t>
+  </si>
+  <si>
+    <t>F score, Kappa index,NMI</t>
+  </si>
+  <si>
+    <t>No dataset</t>
+  </si>
+  <si>
+    <t>Comparison of methods</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>NMI,F score, Error rate, Entropy</t>
+  </si>
+  <si>
+    <t>Slovene, Gahuku Slashdot</t>
+  </si>
+  <si>
+    <t>Ant colony optimisation</t>
+  </si>
+  <si>
+    <t>AUC,precision</t>
+  </si>
+  <si>
+    <t>Structural Balance</t>
+  </si>
+  <si>
+    <t>Epinions, Slashdot</t>
+  </si>
+  <si>
+    <t>Frustration,Modularity, Balance</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +239,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,55 +556,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2949985-36D9-4D2C-82AE-33B237A5F91D}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49259BFE-D115-4FE2-8A8C-569E445AE771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4E637-F203-4E8A-B41B-E1C211A4C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{926706CC-264D-4B3E-98B8-EB0F416D7D1A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>1. Computational task- CD,LP etc</t>
   </si>
@@ -196,6 +196,123 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Energy function</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>MOEA</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>COW,EGFR,MIM</t>
+  </si>
+  <si>
+    <t>Precision,Recall,F_Score</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Epinions,Slashdot,Wiki</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Epinions,Slashdot</t>
+  </si>
+  <si>
+    <t>UNPNMF</t>
+  </si>
+  <si>
+    <t>Ego Splitting</t>
+  </si>
+  <si>
+    <t>F1,NMI</t>
+  </si>
+  <si>
+    <t>(amazon, dblp, livejournal, orkut, friendster</t>
+  </si>
+  <si>
+    <t>Functional Network</t>
+  </si>
+  <si>
+    <t>Epinions,Slashdot,Alpha,OTC,DBLP,WikiPedia</t>
+  </si>
+  <si>
+    <t>Time complexity</t>
+  </si>
+  <si>
+    <t>CD,IM</t>
+  </si>
+  <si>
+    <t>Hybrid Algorithm</t>
+  </si>
+  <si>
+    <t>Slashdot,Yeast</t>
+  </si>
+  <si>
+    <t>Diffusion Speed and Quality</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>12 datasets</t>
+  </si>
+  <si>
+    <t>LP,CD</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>IRIE</t>
+  </si>
+  <si>
+    <t>Epinins,Slashdot,ARXiv,DBP</t>
+  </si>
+  <si>
+    <t>Filesize</t>
+  </si>
+  <si>
+    <t>Gravitation based</t>
+  </si>
+  <si>
+    <t>Accuracy, Precision, Recall and AUC</t>
+  </si>
+  <si>
+    <t>Opinion dynamics</t>
+  </si>
+  <si>
+    <t>Slashdot,Epinions,WikiSigned,WikiPedia</t>
+  </si>
+  <si>
+    <t>astro-ph, Blogs, grid, protein, Internet topology, us-air, NetFlix, CiteSeer, Cora, WebKb and Gnutella pere-to-peer</t>
+  </si>
+  <si>
+    <t>Affinity Index Algorithm</t>
+  </si>
+  <si>
+    <t>Slovene,Gahuka</t>
+  </si>
+  <si>
+    <t>Symbiotic Organism Search</t>
+  </si>
+  <si>
+    <t>NMI,Mod</t>
+  </si>
+  <si>
+    <t>Karate,School6,7,Polbooks,Dolphin,Football</t>
+  </si>
+  <si>
+    <t>Tabu Search</t>
   </si>
 </sst>
 </file>
@@ -556,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2949985-36D9-4D2C-82AE-33B237A5F91D}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,15 +1011,375 @@
       <c r="A30">
         <v>18</v>
       </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>19</v>
       </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4E637-F203-4E8A-B41B-E1C211A4C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C588F8B-2E4F-4C16-BDDF-F78971944E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{926706CC-264D-4B3E-98B8-EB0F416D7D1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{926706CC-264D-4B3E-98B8-EB0F416D7D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>1. Computational task- CD,LP etc</t>
   </si>
@@ -313,6 +313,75 @@
   </si>
   <si>
     <t>Tabu Search</t>
+  </si>
+  <si>
+    <t>Local and Global index, decision tree</t>
+  </si>
+  <si>
+    <t>Facebook, Brightkite and HepTh</t>
+  </si>
+  <si>
+    <t>Precision, Recall and F1</t>
+  </si>
+  <si>
+    <t>Social Network Search Algorithm</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>RecSSN</t>
+  </si>
+  <si>
+    <t>Precision,Recall MAE,RMSE</t>
+  </si>
+  <si>
+    <t>Epinions</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Facebook,GitEco</t>
+  </si>
+  <si>
+    <t>Only comparison</t>
+  </si>
+  <si>
+    <t>Transfer AdaBoost SVM</t>
+  </si>
+  <si>
+    <t>accuracy, precision and recall</t>
+  </si>
+  <si>
+    <t>RWR k-means SpectralLink FOAF Two-Way Ncut</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Precision,Recall</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>Wikipedia, Twitter</t>
+  </si>
+  <si>
+    <t>Q factor</t>
+  </si>
+  <si>
+    <t>Slovene,Gahuku</t>
+  </si>
+  <si>
+    <t>SRWA</t>
+  </si>
+  <si>
+    <t>ABEM</t>
+  </si>
+  <si>
+    <t>Ego-Facebook,Git</t>
   </si>
 </sst>
 </file>
@@ -356,9 +425,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2949985-36D9-4D2C-82AE-33B237A5F91D}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,6 +1266,18 @@
       <c r="A42">
         <v>30</v>
       </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -1309,6 +1393,15 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -1331,6 +1424,15 @@
       <c r="B52" t="s">
         <v>19</v>
       </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -1339,6 +1441,13 @@
       <c r="B53" t="s">
         <v>33</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -1364,6 +1473,15 @@
       <c r="B55" t="s">
         <v>19</v>
       </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -1382,7 +1500,89 @@
         <v>37</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C53:G53"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
